--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -7,7 +7,7 @@
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="rainflow_result" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Monza150" sheetId="2" r:id="rId2"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -399,197 +399,200 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>60.4687</v>
+        <v>61.8743</v>
       </c>
       <c r="B2" t="n">
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.7893</v>
+        <v>763.6744</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>37.5873</v>
+        <v>38.7836</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1167.1797</v>
+        <v>752.1291</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>30.3438</v>
+        <v>36.8895</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1167.5936</v>
+        <v>764.9085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>25.4523</v>
+        <v>31.4535</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1189.2975</v>
+        <v>758.1950000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>22.2781</v>
+        <v>31.3282</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1156.1345</v>
+        <v>755.8568</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>19.1735</v>
+        <v>29.7976</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1151.1417</v>
+        <v>762.1809</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>16.6059</v>
+        <v>26.1376</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1183.7823</v>
+        <v>771.9728</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>13.0993</v>
+        <v>25.1335</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1183.1209</v>
+        <v>767.4164</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>12.5481</v>
+        <v>22.2421</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1161.1957</v>
+        <v>755.4511</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>11.1685</v>
+        <v>20.724</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1148.8189</v>
+        <v>784.2496</v>
       </c>
     </row>
     <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>20.032</v>
+      </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1149.8189</v>
+        <v>766.3641</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>8.4948</v>
+        <v>19.0249</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1156.481</v>
+        <v>755.0113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>5.2046</v>
+        <v>16.5363</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1182.7942</v>
+        <v>748.9233</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>3.6087</v>
+        <v>14.7361</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1187.8663</v>
+        <v>759.6534</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>3.3754</v>
+        <v>11.4518</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1147.8555</v>
+        <v>745.9186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.4249</v>
+        <v>5.5451</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1175.7855</v>
+        <v>748.8491</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.3473</v>
+        <v>0.4603</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1172.5729</v>
+        <v>766.3967</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.0292</v>
+        <v>0.2057</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1156.0359</v>
+        <v>765.0607</v>
       </c>
     </row>
   </sheetData>
